--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T14:02:34+00:00</t>
+    <t>2022-01-31T21:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T21:57:51+00:00</t>
+    <t>2022-02-02T08:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:04:13+00:00</t>
+    <t>2022-02-02T08:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:44:19+00:00</t>
+    <t>2022-02-02T15:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:28+00:00</t>
+    <t>2022-02-03T08:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T08:35:41+00:00</t>
+    <t>2022-02-03T09:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:16:30+00:00</t>
+    <t>2022-02-04T15:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T15:35:42+00:00</t>
+    <t>2022-02-04T16:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T16:01:40+00:00</t>
+    <t>2022-02-10T08:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T08:30:59+00:00</t>
+    <t>2022-02-10T08:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T08:53:39+00:00</t>
+    <t>2022-04-27T12:37:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T12:37:13+00:00</t>
+    <t>2022-05-16T12:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Begrunnelse for rekvisisjon</t>
+    <t>Begrunnelse for rekvisisjon/henvisning</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T12:54:37+00:00</t>
+    <t>2022-05-16T13:02:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:02:52+00:00</t>
+    <t>2022-09-09T13:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.578.1.12.4.1.1.8231</t>
+    <t>id: urn:oid:2.16.578.1.12.4.1.1.8231</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T13:02:22+00:00</t>
+    <t>2023-08-17T10:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,10 +371,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:02:16+00:00</t>
+    <t>2023-08-17T10:17:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:17:13+00:00</t>
+    <t>2023-08-17T10:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:25:54+00:00</t>
+    <t>2023-09-12T18:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/CodeSystem/no-kodeverk-8231</t>
+    <t>http://helsedir.no/fhir/CodeSystem/no-kodeverk-8231</t>
   </si>
   <si>
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.578.1.12.4.1.1.8231</t>
+    <t>OID:2.16.578.1.12.4.1.1.8231</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,13 +63,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-12T18:30:30+00:00</t>
+    <t>2024-06-03T09:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Direktoratet for e-helse</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -467,88 +464,86 @@
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -566,237 +561,237 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="D16" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="D19" s="2"/>
     </row>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T09:03:40+00:00</t>
+    <t>2024-06-04T05:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T05:31:20+00:00</t>
+    <t>2024-06-06T07:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T07:46:07+00:00</t>
+    <t>2024-12-17T09:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T09:50:02+00:00</t>
+    <t>2024-12-17T09:56:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8231.codesystem.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T09:56:26+00:00</t>
+    <t>2025-11-09T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
